--- a/biology/Zoologie/Hydrozoa/Hydrozoa.xlsx
+++ b/biology/Zoologie/Hydrozoa/Hydrozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hydrozoaires ou Hydraires (Hydrozoa) sont une classe de cnidaires, avec environ 3 600 espèces reconnues[2]. Ils sont exclusivement marins à l'exception de l'ordre des Hydroida, qui vit en eau douce et comprend notamment les hydres. Le cycle de vie comprend en général les deux stades polype (forme fixe, asexuée) et méduse (forme libre, sexuée), avec prépondérance du stade polype. Chez certains taxons cependant, le cycle se réduit à une seule forme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hydrozoaires ou Hydraires (Hydrozoa) sont une classe de cnidaires, avec environ 3 600 espèces reconnues. Ils sont exclusivement marins à l'exception de l'ordre des Hydroida, qui vit en eau douce et comprend notamment les hydres. Le cycle de vie comprend en général les deux stades polype (forme fixe, asexuée) et méduse (forme libre, sexuée), avec prépondérance du stade polype. Chez certains taxons cependant, le cycle se réduit à une seule forme.
 Les hydrozoaires sont pourvus d'un velum, contrairement à d'autres cnidaires tels les scyphozoaires (qui sont les méduses « vraies »). L'exosquelette est fait de chitine ou, parfois, de carbonate de calcium. Le système digestif est incomplet ; la mésoglée est mince.
 </t>
         </is>
@@ -512,17 +524,19 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe en général une alternance entre une phase initiale polype et une phase méduse, la seconde étant produite par la première et développant les gonades, qui sont le plus souvent épidermiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe en général une alternance entre une phase initiale polype et une phase méduse, la seconde étant produite par la première et développant les gonades, qui sont le plus souvent épidermiques.
 La forme polype ne possède pas de pharynx ou de septa interne mais une bouche saillante et une symétrie radiale.
 Leur cavité digestive n'est pas divisée par des cloisons.
-La forme méduse possède un velum, mais pas de rhopalia[3].
+La forme méduse possède un velum, mais pas de rhopalia.
 			Aglaophenia cupressina, une espèce à dominante « polype » (coloniale).
 			Tima formosa, une espèce du même groupe mais à dominante « méduse ».
 			La physalie fait partie du neuston pélagique.
 			Les hydraires sont souvent le support de nudibranches tels que les dotos ou les lomanotus.
-			Certaines espèces comme l'hydraire argenté étaient récoltées pour servir à de multiples décorations[4].
+			Certaines espèces comme l'hydraire argenté étaient récoltées pour servir à de multiples décorations.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gonades sont d'origine principalement épidermique[3] (ectodermique). Il n'y a pas de phénomène de strobilation.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gonades sont d'origine principalement épidermique (ectodermique). Il n'y a pas de phénomène de strobilation.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification des Hydrozoa est très variable en fonction des auteurs. En voici quelques possibilités :
 sous-classe des Trachylinae Haeckel, 1879
@@ -600,7 +618,7 @@
 ordre des Siphonophorae
 ordre des Stylasterina
 ordre des Trachylinida
-Selon World Register of Marine Species                               (22 septembre 2015)[3] et ITIS      (22 septembre 2015)[1] :
+Selon World Register of Marine Species                               (22 septembre 2015) et ITIS      (22 septembre 2015) :
 sous-classe Hydroidolina Collins, 2000
 ordre Anthoathecata Cornelius, 1992
 ordre Leptothecata Cornelius, 1992 = Syn. Leptothecata, Leptomedusae
@@ -645,7 +663,9 @@
           <t>Exemples d'hydrozoaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Velella velella colonie de polypes flottants que l'on peut croiser près des côtes européennes (ou échouée).
 La physalie (Physalia physalis) - Siphonophore constitué d'une colonie regroupant quatre sortes de polypes différents, dont les tentacules peuvent atteindre 40 mètres de long.
@@ -654,7 +674,7 @@
 Aequorea victoria, méduse fluorescente grâce à la protéine GFP (Protéine utilisée maintenant comme marqueur en recherche en biologie).
 La méduse Turritopsis nutricula, seul animal (métazoaire) connu pouvant revenir à une immaturité sexuelle avant de revieillir.
 Il existe peu d'espèces d'eau douce et encore moins de forme "méduse", par contre la méduse d'eau douce Craspedacusta sowerbyi semble présente (très localement commune voire pullulant périodiquement) sur presque toute la planète.
-Cordylophora caspia, un hydrozoaire colonisateur, localement invasif pouvant atteindre une dizaine de centimètres de hauteur, classé par certains parmi les espèces les plus nuisibles[5].
+Cordylophora caspia, un hydrozoaire colonisateur, localement invasif pouvant atteindre une dizaine de centimètres de hauteur, classé par certains parmi les espèces les plus nuisibles.
 			Velella velella
 			Physalia physalis
 			Millepora alcicornis
